--- a/data_in/data_raw_manually_extracted/human_entered/S_151.xlsx
+++ b/data_in/data_raw_manually_extracted/human_entered/S_151.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pixie/Desktop/Data meeting/Data collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicef.sharepoint.com/teams/CHE-MarketData-DataIngest/Shared Documents/Data Ingest/CRB Atlas/data_raw_manually_extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{75509FD0-24D6-9F4A-A6BC-41420452CA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C046104-E83D-4343-9094-10449116AB33}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{75509FD0-24D6-9F4A-A6BC-41420452CA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{737EE3D5-D02C-4629-9A5A-F65C9B94E82B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19780" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blueprint" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,11 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blueprint!$A$1:$AJ$196</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Raw data'!$E$6:$F$6</definedName>
     <definedName name="Options_2.3Sb">[1]CRCE!$DQ$212:$DQ$219</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="589">
   <si>
     <t>COUNTRY_ISO_3</t>
   </si>
@@ -1800,6 +1801,21 @@
   </si>
   <si>
     <t>Do national laws guarantee public participation?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries with constitutional provisions on public participation AND Countries with provisions in national administrative framework laws broadly providing for public participation AND Countries with provisions in national environmental framework laws broadly guaranteeing public participation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries with constitutional provisions on public participation AND Countries with provisions in national environmental framework laws broadly guaranteeing public participation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries with provisions in national administrative framework laws broadly providing for public participation AND Countries with provisions in national environmental framework laws broadly guaranteeing public participation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries with provisions in national environmental framework laws broadly guaranteeing public participation AND Countries with provisions in national environmental framework laws broadly guaranteeing public participation </t>
   </si>
 </sst>
 </file>
@@ -2399,39 +2415,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ196"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T196"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.85546875" customWidth="1"/>
-    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.88671875" customWidth="1"/>
+    <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.109375" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1">
@@ -2539,7 +2556,7 @@
       </c>
       <c r="AJ1" s="5"/>
     </row>
-    <row r="2" spans="1:36" ht="15.95">
+    <row r="2" spans="1:36" ht="15.6">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -2590,7 +2607,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="15.95">
+    <row r="3" spans="1:36" ht="15.6" hidden="1">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -2601,7 +2618,7 @@
         <v>2019</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>41</v>
+        <v>585</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="15" t="s">
@@ -2609,7 +2626,7 @@
       </c>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:36" ht="15.95">
+    <row r="4" spans="1:36" ht="15.6">
       <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
@@ -2627,7 +2644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="15.95">
+    <row r="5" spans="1:36" ht="15.6">
       <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
@@ -2645,7 +2662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15.95">
+    <row r="6" spans="1:36" ht="15.6" hidden="1">
       <c r="A6" s="8" t="s">
         <v>47</v>
       </c>
@@ -2656,14 +2673,14 @@
         <v>2019</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="15.95">
+    <row r="7" spans="1:36" ht="15.6">
       <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
@@ -2681,7 +2698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="15.95">
+    <row r="8" spans="1:36" ht="15.6" hidden="1">
       <c r="A8" s="8" t="s">
         <v>52</v>
       </c>
@@ -2692,14 +2709,14 @@
         <v>2019</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15.95">
+    <row r="9" spans="1:36" ht="15.6" hidden="1">
       <c r="A9" s="8" t="s">
         <v>55</v>
       </c>
@@ -2710,14 +2727,14 @@
         <v>2019</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="15.95">
+    <row r="10" spans="1:36" ht="15.6">
       <c r="A10" s="8" t="s">
         <v>58</v>
       </c>
@@ -2735,7 +2752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.95">
+    <row r="11" spans="1:36" ht="15.6" hidden="1">
       <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
@@ -2746,14 +2763,14 @@
         <v>2019</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="15.95">
+    <row r="12" spans="1:36" ht="15.6" hidden="1">
       <c r="A12" s="8" t="s">
         <v>62</v>
       </c>
@@ -2764,14 +2781,14 @@
         <v>2019</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="15.95">
+    <row r="13" spans="1:36" ht="15.6" hidden="1">
       <c r="A13" s="8" t="s">
         <v>64</v>
       </c>
@@ -2782,14 +2799,14 @@
         <v>2019</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="15.95">
+    <row r="14" spans="1:36" ht="15.6">
       <c r="A14" s="8" t="s">
         <v>67</v>
       </c>
@@ -2807,7 +2824,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="15.95">
+    <row r="15" spans="1:36" ht="15.6" hidden="1">
       <c r="A15" s="8" t="s">
         <v>69</v>
       </c>
@@ -2818,14 +2835,14 @@
         <v>2019</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="15.95">
+    <row r="16" spans="1:36" ht="15.6" hidden="1">
       <c r="A16" s="8" t="s">
         <v>71</v>
       </c>
@@ -2836,14 +2853,14 @@
         <v>2019</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S16" s="6"/>
       <c r="T16" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.95">
+    <row r="17" spans="1:20" ht="15.6" hidden="1">
       <c r="A17" s="8" t="s">
         <v>73</v>
       </c>
@@ -2854,14 +2871,14 @@
         <v>2019</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.95">
+    <row r="18" spans="1:20" ht="15.6">
       <c r="A18" s="8" t="s">
         <v>75</v>
       </c>
@@ -2879,7 +2896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.95">
+    <row r="19" spans="1:20" ht="15.6" hidden="1">
       <c r="A19" s="8" t="s">
         <v>77</v>
       </c>
@@ -2890,14 +2907,14 @@
         <v>2019</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S19" s="6"/>
       <c r="T19" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.95">
+    <row r="20" spans="1:20" ht="15.6">
       <c r="A20" s="8" t="s">
         <v>79</v>
       </c>
@@ -2915,7 +2932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.95">
+    <row r="21" spans="1:20" ht="15.6" hidden="1">
       <c r="A21" s="8" t="s">
         <v>81</v>
       </c>
@@ -2926,14 +2943,14 @@
         <v>2019</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S21" s="6"/>
       <c r="T21" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.95">
+    <row r="22" spans="1:20" ht="15.6" hidden="1">
       <c r="A22" s="8" t="s">
         <v>83</v>
       </c>
@@ -2944,14 +2961,14 @@
         <v>2019</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.95">
+    <row r="23" spans="1:20" ht="15.6">
       <c r="A23" s="8" t="s">
         <v>85</v>
       </c>
@@ -2969,7 +2986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.95">
+    <row r="24" spans="1:20" ht="15.6" hidden="1">
       <c r="A24" s="8" t="s">
         <v>87</v>
       </c>
@@ -2980,14 +2997,14 @@
         <v>2019</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.95">
+    <row r="25" spans="1:20" ht="15.6" hidden="1">
       <c r="A25" s="8" t="s">
         <v>89</v>
       </c>
@@ -2998,14 +3015,14 @@
         <v>2019</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.95">
+    <row r="26" spans="1:20" ht="15.6" hidden="1">
       <c r="A26" s="8" t="s">
         <v>91</v>
       </c>
@@ -3016,14 +3033,14 @@
         <v>2019</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.95">
+    <row r="27" spans="1:20" ht="15.6" hidden="1">
       <c r="A27" s="8" t="s">
         <v>93</v>
       </c>
@@ -3034,14 +3051,14 @@
         <v>2019</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S27" s="6"/>
       <c r="T27" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.95">
+    <row r="28" spans="1:20" ht="15.6" hidden="1">
       <c r="A28" s="8" t="s">
         <v>95</v>
       </c>
@@ -3052,14 +3069,14 @@
         <v>2019</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.95">
+    <row r="29" spans="1:20" ht="15.6">
       <c r="A29" s="8" t="s">
         <v>97</v>
       </c>
@@ -3077,7 +3094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.95">
+    <row r="30" spans="1:20" ht="15.6" hidden="1">
       <c r="A30" s="8" t="s">
         <v>99</v>
       </c>
@@ -3088,14 +3105,14 @@
         <v>2019</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S30" s="6"/>
       <c r="T30" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.95">
+    <row r="31" spans="1:20" ht="15.6" hidden="1">
       <c r="A31" s="8" t="s">
         <v>101</v>
       </c>
@@ -3106,14 +3123,14 @@
         <v>2019</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.95">
+    <row r="32" spans="1:20" ht="15.6" hidden="1">
       <c r="A32" s="8" t="s">
         <v>103</v>
       </c>
@@ -3124,14 +3141,14 @@
         <v>2019</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.95">
+    <row r="33" spans="1:20" ht="15.6" hidden="1">
       <c r="A33" s="8" t="s">
         <v>105</v>
       </c>
@@ -3142,14 +3159,14 @@
         <v>2019</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.95">
+    <row r="34" spans="1:20" ht="15.6" hidden="1">
       <c r="A34" s="8" t="s">
         <v>107</v>
       </c>
@@ -3160,14 +3177,14 @@
         <v>2019</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S34" s="6"/>
       <c r="T34" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.95">
+    <row r="35" spans="1:20" ht="15.6" hidden="1">
       <c r="A35" s="8" t="s">
         <v>109</v>
       </c>
@@ -3178,14 +3195,14 @@
         <v>2019</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.95">
+    <row r="36" spans="1:20" ht="15.6" hidden="1">
       <c r="A36" s="8" t="s">
         <v>111</v>
       </c>
@@ -3196,14 +3213,14 @@
         <v>2019</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S36" s="6"/>
       <c r="T36" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.95">
+    <row r="37" spans="1:20" ht="15.6" hidden="1">
       <c r="A37" s="8" t="s">
         <v>113</v>
       </c>
@@ -3214,14 +3231,14 @@
         <v>2019</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.95">
+    <row r="38" spans="1:20" ht="15.6" hidden="1">
       <c r="A38" s="8" t="s">
         <v>115</v>
       </c>
@@ -3232,14 +3249,14 @@
         <v>2019</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S38" s="6"/>
       <c r="T38" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.95">
+    <row r="39" spans="1:20" ht="15.6">
       <c r="A39" s="8" t="s">
         <v>117</v>
       </c>
@@ -3257,7 +3274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.95">
+    <row r="40" spans="1:20" ht="15.6">
       <c r="A40" s="8" t="s">
         <v>119</v>
       </c>
@@ -3275,7 +3292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.95">
+    <row r="41" spans="1:20" ht="15.6" hidden="1">
       <c r="A41" s="8" t="s">
         <v>121</v>
       </c>
@@ -3286,14 +3303,14 @@
         <v>2019</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S41" s="6"/>
       <c r="T41" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.95">
+    <row r="42" spans="1:20" ht="15.6" hidden="1">
       <c r="A42" s="8" t="s">
         <v>123</v>
       </c>
@@ -3304,14 +3321,14 @@
         <v>2019</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S42" s="6"/>
       <c r="T42" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.95">
+    <row r="43" spans="1:20" ht="15.6">
       <c r="A43" s="8" t="s">
         <v>125</v>
       </c>
@@ -3329,7 +3346,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.95">
+    <row r="44" spans="1:20" ht="15.6" hidden="1">
       <c r="A44" s="8" t="s">
         <v>127</v>
       </c>
@@ -3340,14 +3357,14 @@
         <v>2019</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S44" s="6"/>
       <c r="T44" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.95">
+    <row r="45" spans="1:20" ht="15.6" hidden="1">
       <c r="A45" s="8" t="s">
         <v>129</v>
       </c>
@@ -3358,14 +3375,14 @@
         <v>2019</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S45" s="6"/>
       <c r="T45" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.95">
+    <row r="46" spans="1:20" ht="15.6">
       <c r="A46" s="8" t="s">
         <v>131</v>
       </c>
@@ -3383,7 +3400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.95">
+    <row r="47" spans="1:20" ht="15.6" hidden="1">
       <c r="A47" s="8" t="s">
         <v>133</v>
       </c>
@@ -3394,14 +3411,14 @@
         <v>2019</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.95">
+    <row r="48" spans="1:20" ht="15.6" hidden="1">
       <c r="A48" s="8" t="s">
         <v>135</v>
       </c>
@@ -3412,14 +3429,14 @@
         <v>2019</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.95">
+    <row r="49" spans="1:20" ht="15.6">
       <c r="A49" s="8" t="s">
         <v>137</v>
       </c>
@@ -3437,7 +3454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.95">
+    <row r="50" spans="1:20" ht="15.6" hidden="1">
       <c r="A50" s="8" t="s">
         <v>139</v>
       </c>
@@ -3448,14 +3465,14 @@
         <v>2019</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.95">
+    <row r="51" spans="1:20" ht="15.6" hidden="1">
       <c r="A51" s="8" t="s">
         <v>141</v>
       </c>
@@ -3466,14 +3483,14 @@
         <v>2019</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.95">
+    <row r="52" spans="1:20" ht="15.6" hidden="1">
       <c r="A52" s="8" t="s">
         <v>143</v>
       </c>
@@ -3484,14 +3501,14 @@
         <v>2019</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.95">
+    <row r="53" spans="1:20" ht="15.6" hidden="1">
       <c r="A53" s="8" t="s">
         <v>145</v>
       </c>
@@ -3502,14 +3519,14 @@
         <v>2019</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S53" s="6"/>
       <c r="T53" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.95">
+    <row r="54" spans="1:20" ht="15.6" hidden="1">
       <c r="A54" s="8" t="s">
         <v>147</v>
       </c>
@@ -3520,14 +3537,14 @@
         <v>2019</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S54" s="6"/>
       <c r="T54" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.95">
+    <row r="55" spans="1:20" ht="15.6" hidden="1">
       <c r="A55" s="8" t="s">
         <v>149</v>
       </c>
@@ -3538,14 +3555,14 @@
         <v>2019</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S55" s="6"/>
       <c r="T55" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.95">
+    <row r="56" spans="1:20" ht="15.6" hidden="1">
       <c r="A56" s="8" t="s">
         <v>151</v>
       </c>
@@ -3556,14 +3573,14 @@
         <v>2019</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S56" s="6"/>
       <c r="T56" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.95">
+    <row r="57" spans="1:20" ht="15.6" hidden="1">
       <c r="A57" s="8" t="s">
         <v>153</v>
       </c>
@@ -3574,14 +3591,14 @@
         <v>2019</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.95">
+    <row r="58" spans="1:20" ht="15.6" hidden="1">
       <c r="A58" s="8" t="s">
         <v>155</v>
       </c>
@@ -3592,14 +3609,14 @@
         <v>2019</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S58" s="6"/>
       <c r="T58" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.95">
+    <row r="59" spans="1:20" ht="15.6" hidden="1">
       <c r="A59" s="8" t="s">
         <v>157</v>
       </c>
@@ -3610,14 +3627,14 @@
         <v>2019</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S59" s="6"/>
       <c r="T59" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15.95">
+    <row r="60" spans="1:20" ht="15.6">
       <c r="A60" s="8" t="s">
         <v>159</v>
       </c>
@@ -3635,7 +3652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.95">
+    <row r="61" spans="1:20" ht="15.6" hidden="1">
       <c r="A61" s="8" t="s">
         <v>161</v>
       </c>
@@ -3646,14 +3663,14 @@
         <v>2019</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S61" s="6"/>
       <c r="T61" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.95">
+    <row r="62" spans="1:20" ht="15.6" hidden="1">
       <c r="A62" s="8" t="s">
         <v>163</v>
       </c>
@@ -3664,14 +3681,14 @@
         <v>2019</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S62" s="6"/>
       <c r="T62" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.95">
+    <row r="63" spans="1:20" ht="15.6" hidden="1">
       <c r="A63" s="8" t="s">
         <v>165</v>
       </c>
@@ -3682,14 +3699,14 @@
         <v>2019</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S63" s="6"/>
       <c r="T63" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.95">
+    <row r="64" spans="1:20" ht="15.6">
       <c r="A64" s="8" t="s">
         <v>167</v>
       </c>
@@ -3707,7 +3724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.95">
+    <row r="65" spans="1:20" ht="15.6">
       <c r="A65" s="8" t="s">
         <v>169</v>
       </c>
@@ -3725,7 +3742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.95">
+    <row r="66" spans="1:20" ht="15.6" hidden="1">
       <c r="A66" s="8" t="s">
         <v>171</v>
       </c>
@@ -3736,14 +3753,14 @@
         <v>2019</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S66" s="6"/>
       <c r="T66" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15.95">
+    <row r="67" spans="1:20" ht="15.6">
       <c r="A67" s="8" t="s">
         <v>173</v>
       </c>
@@ -3761,7 +3778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.95">
+    <row r="68" spans="1:20" ht="15.6" hidden="1">
       <c r="A68" s="8" t="s">
         <v>175</v>
       </c>
@@ -3772,14 +3789,14 @@
         <v>2019</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S68" s="6"/>
       <c r="T68" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.95">
+    <row r="69" spans="1:20" ht="15.6" hidden="1">
       <c r="A69" s="8" t="s">
         <v>177</v>
       </c>
@@ -3790,14 +3807,14 @@
         <v>2019</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S69" s="6"/>
       <c r="T69" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.95">
+    <row r="70" spans="1:20" ht="15.6" hidden="1">
       <c r="A70" s="8" t="s">
         <v>179</v>
       </c>
@@ -3808,14 +3825,14 @@
         <v>2019</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S70" s="6"/>
       <c r="T70" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.95">
+    <row r="71" spans="1:20" ht="15.6" hidden="1">
       <c r="A71" s="8" t="s">
         <v>181</v>
       </c>
@@ -3826,14 +3843,14 @@
         <v>2019</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S71" s="6"/>
       <c r="T71" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.95">
+    <row r="72" spans="1:20" ht="15.6" hidden="1">
       <c r="A72" s="8" t="s">
         <v>183</v>
       </c>
@@ -3844,14 +3861,14 @@
         <v>2019</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S72" s="6"/>
       <c r="T72" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.95">
+    <row r="73" spans="1:20" ht="15.6" hidden="1">
       <c r="A73" s="8" t="s">
         <v>185</v>
       </c>
@@ -3862,14 +3879,14 @@
         <v>2019</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S73" s="6"/>
       <c r="T73" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.95">
+    <row r="74" spans="1:20" ht="15.6" hidden="1">
       <c r="A74" s="8" t="s">
         <v>187</v>
       </c>
@@ -3880,14 +3897,14 @@
         <v>2019</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S74" s="6"/>
       <c r="T74" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.95">
+    <row r="75" spans="1:20" ht="15.6" hidden="1">
       <c r="A75" s="8" t="s">
         <v>189</v>
       </c>
@@ -3898,14 +3915,14 @@
         <v>2019</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S75" s="6"/>
       <c r="T75" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.95">
+    <row r="76" spans="1:20" ht="15.6" hidden="1">
       <c r="A76" s="8" t="s">
         <v>191</v>
       </c>
@@ -3916,14 +3933,14 @@
         <v>2019</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S76" s="6"/>
       <c r="T76" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.95">
+    <row r="77" spans="1:20" ht="15.6" hidden="1">
       <c r="A77" s="8" t="s">
         <v>193</v>
       </c>
@@ -3934,14 +3951,14 @@
         <v>2019</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S77" s="6"/>
       <c r="T77" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.95">
+    <row r="78" spans="1:20" ht="15.6">
       <c r="A78" s="8" t="s">
         <v>195</v>
       </c>
@@ -3959,7 +3976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.95">
+    <row r="79" spans="1:20" ht="15.6">
       <c r="A79" s="8" t="s">
         <v>197</v>
       </c>
@@ -3977,7 +3994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15.95">
+    <row r="80" spans="1:20" ht="15.6">
       <c r="A80" s="8" t="s">
         <v>200</v>
       </c>
@@ -3995,7 +4012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15.95">
+    <row r="81" spans="1:20" ht="15.6">
       <c r="A81" s="8" t="s">
         <v>202</v>
       </c>
@@ -4013,7 +4030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15.95">
+    <row r="82" spans="1:20" ht="15.6" hidden="1">
       <c r="A82" s="8" t="s">
         <v>204</v>
       </c>
@@ -4024,14 +4041,14 @@
         <v>2019</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S82" s="6"/>
       <c r="T82" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15.95">
+    <row r="83" spans="1:20" ht="15.6" hidden="1">
       <c r="A83" s="8" t="s">
         <v>206</v>
       </c>
@@ -4042,14 +4059,14 @@
         <v>2019</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S83" s="6"/>
       <c r="T83" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15.95">
+    <row r="84" spans="1:20" ht="15.6" hidden="1">
       <c r="A84" s="8" t="s">
         <v>208</v>
       </c>
@@ -4060,14 +4077,14 @@
         <v>2019</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S84" s="6"/>
       <c r="T84" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15.95">
+    <row r="85" spans="1:20" ht="15.6" hidden="1">
       <c r="A85" s="8" t="s">
         <v>210</v>
       </c>
@@ -4078,14 +4095,14 @@
         <v>2019</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S85" s="6"/>
       <c r="T85" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15.95">
+    <row r="86" spans="1:20" ht="15.6" hidden="1">
       <c r="A86" s="8" t="s">
         <v>212</v>
       </c>
@@ -4096,14 +4113,14 @@
         <v>2019</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S86" s="6"/>
       <c r="T86" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15.95">
+    <row r="87" spans="1:20" ht="15.6">
       <c r="A87" s="8" t="s">
         <v>214</v>
       </c>
@@ -4121,7 +4138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15.95">
+    <row r="88" spans="1:20" ht="15.6" hidden="1">
       <c r="A88" s="8" t="s">
         <v>216</v>
       </c>
@@ -4132,14 +4149,14 @@
         <v>2019</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15.95">
+    <row r="89" spans="1:20" ht="15.6" hidden="1">
       <c r="A89" s="8" t="s">
         <v>218</v>
       </c>
@@ -4150,14 +4167,14 @@
         <v>2019</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S89" s="6"/>
       <c r="T89" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.95">
+    <row r="90" spans="1:20" ht="15.6">
       <c r="A90" s="8" t="s">
         <v>220</v>
       </c>
@@ -4175,7 +4192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.95">
+    <row r="91" spans="1:20" ht="15.6">
       <c r="A91" s="8" t="s">
         <v>222</v>
       </c>
@@ -4193,7 +4210,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15.95">
+    <row r="92" spans="1:20" ht="15.6" hidden="1">
       <c r="A92" s="8" t="s">
         <v>224</v>
       </c>
@@ -4204,14 +4221,14 @@
         <v>2019</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15.95">
+    <row r="93" spans="1:20" ht="15.6" hidden="1">
       <c r="A93" s="8" t="s">
         <v>226</v>
       </c>
@@ -4222,14 +4239,14 @@
         <v>2019</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.95">
+    <row r="94" spans="1:20" ht="15.6">
       <c r="A94" s="8" t="s">
         <v>228</v>
       </c>
@@ -4247,7 +4264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.95">
+    <row r="95" spans="1:20" ht="15.6" hidden="1">
       <c r="A95" s="8" t="s">
         <v>230</v>
       </c>
@@ -4258,14 +4275,14 @@
         <v>2019</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>232</v>
+        <v>585</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15.95">
+    <row r="96" spans="1:20" ht="15.6" hidden="1">
       <c r="A96" s="8" t="s">
         <v>233</v>
       </c>
@@ -4276,14 +4293,14 @@
         <v>2019</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15.95">
+    <row r="97" spans="1:20" ht="15.6" hidden="1">
       <c r="A97" s="8" t="s">
         <v>235</v>
       </c>
@@ -4294,14 +4311,14 @@
         <v>2019</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S97" s="6"/>
       <c r="T97" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.95">
+    <row r="98" spans="1:20" ht="15.6" hidden="1">
       <c r="A98" s="8" t="s">
         <v>237</v>
       </c>
@@ -4312,14 +4329,14 @@
         <v>2019</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.95">
+    <row r="99" spans="1:20" ht="15.6" hidden="1">
       <c r="A99" s="8" t="s">
         <v>239</v>
       </c>
@@ -4330,14 +4347,14 @@
         <v>2019</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S99" s="6"/>
       <c r="T99" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15.95">
+    <row r="100" spans="1:20" ht="15.6" hidden="1">
       <c r="A100" s="8" t="s">
         <v>241</v>
       </c>
@@ -4348,14 +4365,14 @@
         <v>2019</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.95">
+    <row r="101" spans="1:20" ht="15.6" hidden="1">
       <c r="A101" s="8" t="s">
         <v>243</v>
       </c>
@@ -4366,14 +4383,14 @@
         <v>2019</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.95">
+    <row r="102" spans="1:20" ht="15.6">
       <c r="A102" s="8" t="s">
         <v>245</v>
       </c>
@@ -4391,7 +4408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15.95">
+    <row r="103" spans="1:20" ht="15.6" hidden="1">
       <c r="A103" s="8" t="s">
         <v>247</v>
       </c>
@@ -4402,14 +4419,14 @@
         <v>2019</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S103" s="6"/>
       <c r="T103" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.95">
+    <row r="104" spans="1:20" ht="15.6" hidden="1">
       <c r="A104" s="8" t="s">
         <v>249</v>
       </c>
@@ -4420,14 +4437,14 @@
         <v>2019</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S104" s="6"/>
       <c r="T104" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15.95">
+    <row r="105" spans="1:20" ht="15.6" hidden="1">
       <c r="A105" s="8" t="s">
         <v>251</v>
       </c>
@@ -4438,14 +4455,14 @@
         <v>2019</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>253</v>
+        <v>587</v>
       </c>
       <c r="S105" s="6"/>
       <c r="T105" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15.95">
+    <row r="106" spans="1:20" ht="15.6">
       <c r="A106" s="8" t="s">
         <v>254</v>
       </c>
@@ -4463,7 +4480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15.95">
+    <row r="107" spans="1:20" ht="15.6">
       <c r="A107" s="8" t="s">
         <v>256</v>
       </c>
@@ -4481,7 +4498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15.95">
+    <row r="108" spans="1:20" ht="15.6">
       <c r="A108" s="8" t="s">
         <v>258</v>
       </c>
@@ -4499,7 +4516,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15.95">
+    <row r="109" spans="1:20" ht="15.6">
       <c r="A109" s="8" t="s">
         <v>260</v>
       </c>
@@ -4517,7 +4534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15.95">
+    <row r="110" spans="1:20" ht="15.6" hidden="1">
       <c r="A110" s="8" t="s">
         <v>262</v>
       </c>
@@ -4528,14 +4545,14 @@
         <v>2019</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S110" s="6"/>
       <c r="T110" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15.95">
+    <row r="111" spans="1:20" ht="15.6">
       <c r="A111" s="8" t="s">
         <v>264</v>
       </c>
@@ -4553,7 +4570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15.95">
+    <row r="112" spans="1:20" ht="15.6">
       <c r="A112" s="8" t="s">
         <v>266</v>
       </c>
@@ -4571,7 +4588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15.95">
+    <row r="113" spans="1:20" ht="15.6">
       <c r="A113" s="8" t="s">
         <v>268</v>
       </c>
@@ -4589,7 +4606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15.95">
+    <row r="114" spans="1:20" ht="15.6" hidden="1">
       <c r="A114" s="8" t="s">
         <v>270</v>
       </c>
@@ -4600,14 +4617,14 @@
         <v>2019</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S114" s="6"/>
       <c r="T114" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15.95">
+    <row r="115" spans="1:20" ht="15.6" hidden="1">
       <c r="A115" s="8" t="s">
         <v>272</v>
       </c>
@@ -4618,14 +4635,14 @@
         <v>2019</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>232</v>
+        <v>585</v>
       </c>
       <c r="S115" s="6"/>
       <c r="T115" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15.95">
+    <row r="116" spans="1:20" ht="15.6" hidden="1">
       <c r="A116" s="8" t="s">
         <v>274</v>
       </c>
@@ -4636,14 +4653,14 @@
         <v>2019</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S116" s="6"/>
       <c r="T116" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15.95">
+    <row r="117" spans="1:20" ht="15.6" hidden="1">
       <c r="A117" s="8" t="s">
         <v>276</v>
       </c>
@@ -4654,14 +4671,14 @@
         <v>2019</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S117" s="6"/>
       <c r="T117" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15.95">
+    <row r="118" spans="1:20" ht="15.6">
       <c r="A118" s="8" t="s">
         <v>278</v>
       </c>
@@ -4679,7 +4696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15.95">
+    <row r="119" spans="1:20" ht="15.6" hidden="1">
       <c r="A119" s="8" t="s">
         <v>280</v>
       </c>
@@ -4690,14 +4707,14 @@
         <v>2019</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S119" s="6"/>
       <c r="T119" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15.95">
+    <row r="120" spans="1:20" ht="15.6" hidden="1">
       <c r="A120" s="8" t="s">
         <v>282</v>
       </c>
@@ -4708,14 +4725,14 @@
         <v>2019</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>232</v>
+        <v>585</v>
       </c>
       <c r="S120" s="6"/>
       <c r="T120" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15.95">
+    <row r="121" spans="1:20" ht="15.6" hidden="1">
       <c r="A121" s="8" t="s">
         <v>284</v>
       </c>
@@ -4726,14 +4743,14 @@
         <v>2019</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S121" s="6"/>
       <c r="T121" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15.95">
+    <row r="122" spans="1:20" ht="15.6" hidden="1">
       <c r="A122" s="8" t="s">
         <v>286</v>
       </c>
@@ -4744,14 +4761,14 @@
         <v>2019</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S122" s="6"/>
       <c r="T122" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15.95">
+    <row r="123" spans="1:20" ht="15.6" hidden="1">
       <c r="A123" s="8" t="s">
         <v>288</v>
       </c>
@@ -4762,14 +4779,14 @@
         <v>2019</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S123" s="6"/>
       <c r="T123" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15.95">
+    <row r="124" spans="1:20" ht="15.6" hidden="1">
       <c r="A124" s="8" t="s">
         <v>290</v>
       </c>
@@ -4780,14 +4797,14 @@
         <v>2019</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S124" s="6"/>
       <c r="T124" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15.95">
+    <row r="125" spans="1:20" ht="15.6" hidden="1">
       <c r="A125" s="8" t="s">
         <v>292</v>
       </c>
@@ -4798,14 +4815,14 @@
         <v>2019</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S125" s="6"/>
       <c r="T125" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15.95">
+    <row r="126" spans="1:20" ht="15.6">
       <c r="A126" s="8" t="s">
         <v>294</v>
       </c>
@@ -4823,7 +4840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15.95">
+    <row r="127" spans="1:20" ht="15.6">
       <c r="A127" s="8" t="s">
         <v>296</v>
       </c>
@@ -4841,7 +4858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15.95">
+    <row r="128" spans="1:20" ht="15.6" hidden="1">
       <c r="A128" s="8" t="s">
         <v>298</v>
       </c>
@@ -4852,14 +4869,14 @@
         <v>2019</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S128" s="6"/>
       <c r="T128" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15.95">
+    <row r="129" spans="1:20" ht="15.6" hidden="1">
       <c r="A129" s="8" t="s">
         <v>300</v>
       </c>
@@ -4870,14 +4887,14 @@
         <v>2019</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S129" s="6"/>
       <c r="T129" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15.95">
+    <row r="130" spans="1:20" ht="15.6">
       <c r="A130" s="8" t="s">
         <v>302</v>
       </c>
@@ -4895,7 +4912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15.95">
+    <row r="131" spans="1:20" ht="15.6">
       <c r="A131" s="8" t="s">
         <v>304</v>
       </c>
@@ -4913,7 +4930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15.95">
+    <row r="132" spans="1:20" ht="15.6" hidden="1">
       <c r="A132" s="8" t="s">
         <v>306</v>
       </c>
@@ -4924,14 +4941,14 @@
         <v>2019</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S132" s="6"/>
       <c r="T132" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15.95">
+    <row r="133" spans="1:20" ht="15.6">
       <c r="A133" s="8" t="s">
         <v>308</v>
       </c>
@@ -4949,7 +4966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15.95">
+    <row r="134" spans="1:20" ht="15.6" hidden="1">
       <c r="A134" s="8" t="s">
         <v>310</v>
       </c>
@@ -4960,14 +4977,14 @@
         <v>2019</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S134" s="6"/>
       <c r="T134" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="15.95">
+    <row r="135" spans="1:20" ht="15.6">
       <c r="A135" s="8" t="s">
         <v>312</v>
       </c>
@@ -4985,7 +5002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15.95">
+    <row r="136" spans="1:20" ht="15.6" hidden="1">
       <c r="A136" s="8" t="s">
         <v>314</v>
       </c>
@@ -4996,14 +5013,14 @@
         <v>2019</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S136" s="6"/>
       <c r="T136" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15.95">
+    <row r="137" spans="1:20" ht="15.6" hidden="1">
       <c r="A137" s="8" t="s">
         <v>316</v>
       </c>
@@ -5014,14 +5031,14 @@
         <v>2019</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S137" s="6"/>
       <c r="T137" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15.95">
+    <row r="138" spans="1:20" ht="15.6">
       <c r="A138" s="8" t="s">
         <v>318</v>
       </c>
@@ -5039,7 +5056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="15.95">
+    <row r="139" spans="1:20" ht="15.6">
       <c r="A139" s="8" t="s">
         <v>320</v>
       </c>
@@ -5057,7 +5074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15.95">
+    <row r="140" spans="1:20" ht="15.6" hidden="1">
       <c r="A140" s="8" t="s">
         <v>322</v>
       </c>
@@ -5068,14 +5085,14 @@
         <v>2019</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S140" s="6"/>
       <c r="T140" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15.95">
+    <row r="141" spans="1:20" ht="15.6" hidden="1">
       <c r="A141" s="8" t="s">
         <v>324</v>
       </c>
@@ -5086,14 +5103,14 @@
         <v>2019</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S141" s="6"/>
       <c r="T141" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15.95">
+    <row r="142" spans="1:20" ht="15.6" hidden="1">
       <c r="A142" s="8" t="s">
         <v>326</v>
       </c>
@@ -5104,14 +5121,14 @@
         <v>2019</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S142" s="6"/>
       <c r="T142" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="15.95">
+    <row r="143" spans="1:20" ht="15.6" hidden="1">
       <c r="A143" s="8" t="s">
         <v>328</v>
       </c>
@@ -5122,14 +5139,14 @@
         <v>2019</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S143" s="6"/>
       <c r="T143" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15.95">
+    <row r="144" spans="1:20" ht="15.6">
       <c r="A144" s="8" t="s">
         <v>330</v>
       </c>
@@ -5147,7 +5164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15.95">
+    <row r="145" spans="1:20" ht="15.6" hidden="1">
       <c r="A145" s="8" t="s">
         <v>332</v>
       </c>
@@ -5158,14 +5175,14 @@
         <v>2019</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S145" s="6"/>
       <c r="T145" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15.95">
+    <row r="146" spans="1:20" ht="15.6" hidden="1">
       <c r="A146" s="8" t="s">
         <v>334</v>
       </c>
@@ -5176,14 +5193,14 @@
         <v>2019</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S146" s="6"/>
       <c r="T146" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="15.95">
+    <row r="147" spans="1:20" ht="15.6" hidden="1">
       <c r="A147" s="8" t="s">
         <v>336</v>
       </c>
@@ -5194,14 +5211,14 @@
         <v>2019</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S147" s="6"/>
       <c r="T147" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15.95">
+    <row r="148" spans="1:20" ht="15.6" hidden="1">
       <c r="A148" s="8" t="s">
         <v>338</v>
       </c>
@@ -5212,14 +5229,14 @@
         <v>2019</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S148" s="6"/>
       <c r="T148" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15.95">
+    <row r="149" spans="1:20" ht="15.6">
       <c r="A149" s="8" t="s">
         <v>340</v>
       </c>
@@ -5237,7 +5254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15.95">
+    <row r="150" spans="1:20" ht="15.6" hidden="1">
       <c r="A150" s="8" t="s">
         <v>342</v>
       </c>
@@ -5248,14 +5265,14 @@
         <v>2019</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S150" s="6"/>
       <c r="T150" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15.95">
+    <row r="151" spans="1:20" ht="15.6">
       <c r="A151" s="8" t="s">
         <v>344</v>
       </c>
@@ -5273,7 +5290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15.95">
+    <row r="152" spans="1:20" ht="15.6">
       <c r="A152" s="8" t="s">
         <v>346</v>
       </c>
@@ -5291,7 +5308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="15.95">
+    <row r="153" spans="1:20" ht="15.6" hidden="1">
       <c r="A153" s="8" t="s">
         <v>348</v>
       </c>
@@ -5302,14 +5319,14 @@
         <v>2019</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S153" s="6"/>
       <c r="T153" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="15.95">
+    <row r="154" spans="1:20" ht="15.6">
       <c r="A154" s="8" t="s">
         <v>350</v>
       </c>
@@ -5327,7 +5344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="15.95">
+    <row r="155" spans="1:20" ht="15.6" hidden="1">
       <c r="A155" s="8" t="s">
         <v>352</v>
       </c>
@@ -5338,14 +5355,14 @@
         <v>2019</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>354</v>
+        <v>588</v>
       </c>
       <c r="S155" s="6"/>
       <c r="T155" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="15.95">
+    <row r="156" spans="1:20" ht="15.6" hidden="1">
       <c r="A156" s="8" t="s">
         <v>355</v>
       </c>
@@ -5356,14 +5373,14 @@
         <v>2019</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S156" s="6"/>
       <c r="T156" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="15.95">
+    <row r="157" spans="1:20" ht="15.6" hidden="1">
       <c r="A157" s="8" t="s">
         <v>357</v>
       </c>
@@ -5374,14 +5391,14 @@
         <v>2019</v>
       </c>
       <c r="E157" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S157" s="6"/>
       <c r="T157" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="15.95">
+    <row r="158" spans="1:20" ht="15.6">
       <c r="A158" s="8" t="s">
         <v>359</v>
       </c>
@@ -5399,7 +5416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="15.95">
+    <row r="159" spans="1:20" ht="15.6" hidden="1">
       <c r="A159" s="8" t="s">
         <v>361</v>
       </c>
@@ -5410,14 +5427,14 @@
         <v>2019</v>
       </c>
       <c r="E159" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S159" s="6"/>
       <c r="T159" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="15.95">
+    <row r="160" spans="1:20" ht="15.6" hidden="1">
       <c r="A160" s="8" t="s">
         <v>363</v>
       </c>
@@ -5428,14 +5445,14 @@
         <v>2019</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S160" s="6"/>
       <c r="T160" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="15.95">
+    <row r="161" spans="1:20" ht="15.6" hidden="1">
       <c r="A161" s="8" t="s">
         <v>365</v>
       </c>
@@ -5446,14 +5463,14 @@
         <v>2019</v>
       </c>
       <c r="E161" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S161" s="6"/>
       <c r="T161" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="15.95">
+    <row r="162" spans="1:20" ht="15.6">
       <c r="A162" s="8" t="s">
         <v>367</v>
       </c>
@@ -5471,7 +5488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="15.95">
+    <row r="163" spans="1:20" ht="15.6">
       <c r="A163" s="8" t="s">
         <v>369</v>
       </c>
@@ -5489,7 +5506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="15.95">
+    <row r="164" spans="1:20" ht="15.6" hidden="1">
       <c r="A164" s="8" t="s">
         <v>371</v>
       </c>
@@ -5500,14 +5517,14 @@
         <v>2019</v>
       </c>
       <c r="E164" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S164" s="6"/>
       <c r="T164" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="15.95">
+    <row r="165" spans="1:20" ht="15.6">
       <c r="A165" s="8" t="s">
         <v>373</v>
       </c>
@@ -5525,7 +5542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="15.95">
+    <row r="166" spans="1:20" ht="15.6" hidden="1">
       <c r="A166" s="8" t="s">
         <v>375</v>
       </c>
@@ -5536,14 +5553,14 @@
         <v>2019</v>
       </c>
       <c r="E166" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S166" s="6"/>
       <c r="T166" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="15.95">
+    <row r="167" spans="1:20" ht="15.6">
       <c r="A167" s="8" t="s">
         <v>377</v>
       </c>
@@ -5561,7 +5578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="15.95">
+    <row r="168" spans="1:20" ht="15.6">
       <c r="A168" s="8" t="s">
         <v>379</v>
       </c>
@@ -5579,7 +5596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="15.95">
+    <row r="169" spans="1:20" ht="15.6">
       <c r="A169" s="8" t="s">
         <v>381</v>
       </c>
@@ -5597,7 +5614,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="15.95">
+    <row r="170" spans="1:20" ht="15.6" hidden="1">
       <c r="A170" s="8" t="s">
         <v>383</v>
       </c>
@@ -5608,14 +5625,14 @@
         <v>2019</v>
       </c>
       <c r="E170" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S170" s="6"/>
       <c r="T170" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="15.95">
+    <row r="171" spans="1:20" ht="15.6" hidden="1">
       <c r="A171" s="8" t="s">
         <v>385</v>
       </c>
@@ -5626,14 +5643,14 @@
         <v>2019</v>
       </c>
       <c r="E171" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S171" s="6"/>
       <c r="T171" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="15.95">
+    <row r="172" spans="1:20" ht="15.6">
       <c r="A172" s="8" t="s">
         <v>387</v>
       </c>
@@ -5651,7 +5668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="15.95">
+    <row r="173" spans="1:20" ht="15.6">
       <c r="A173" s="8" t="s">
         <v>389</v>
       </c>
@@ -5669,7 +5686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="15.95">
+    <row r="174" spans="1:20" ht="15.6" hidden="1">
       <c r="A174" s="8" t="s">
         <v>391</v>
       </c>
@@ -5680,14 +5697,14 @@
         <v>2019</v>
       </c>
       <c r="E174" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S174" s="6"/>
       <c r="T174" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="15.95">
+    <row r="175" spans="1:20" ht="15.6" hidden="1">
       <c r="A175" s="8" t="s">
         <v>393</v>
       </c>
@@ -5698,14 +5715,14 @@
         <v>2019</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S175" s="6"/>
       <c r="T175" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="15.95">
+    <row r="176" spans="1:20" ht="15.6" hidden="1">
       <c r="A176" s="8" t="s">
         <v>395</v>
       </c>
@@ -5716,14 +5733,14 @@
         <v>2019</v>
       </c>
       <c r="E176" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S176" s="6"/>
       <c r="T176" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="15.95">
+    <row r="177" spans="1:20" ht="15.6">
       <c r="A177" s="8" t="s">
         <v>397</v>
       </c>
@@ -5741,7 +5758,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="15.95">
+    <row r="178" spans="1:20" ht="15.6" hidden="1">
       <c r="A178" s="8" t="s">
         <v>399</v>
       </c>
@@ -5752,14 +5769,14 @@
         <v>2019</v>
       </c>
       <c r="E178" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S178" s="6"/>
       <c r="T178" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="15.95">
+    <row r="179" spans="1:20" ht="15.6">
       <c r="A179" s="8" t="s">
         <v>401</v>
       </c>
@@ -5777,7 +5794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="15.95">
+    <row r="180" spans="1:20" ht="15.6" hidden="1">
       <c r="A180" s="8" t="s">
         <v>403</v>
       </c>
@@ -5788,14 +5805,14 @@
         <v>2019</v>
       </c>
       <c r="E180" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S180" s="6"/>
       <c r="T180" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="15.95">
+    <row r="181" spans="1:20" ht="15.6" hidden="1">
       <c r="A181" s="8" t="s">
         <v>405</v>
       </c>
@@ -5806,14 +5823,14 @@
         <v>2019</v>
       </c>
       <c r="E181" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S181" s="6"/>
       <c r="T181" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="15.95">
+    <row r="182" spans="1:20" ht="15.6" hidden="1">
       <c r="A182" s="8" t="s">
         <v>407</v>
       </c>
@@ -5824,14 +5841,14 @@
         <v>2019</v>
       </c>
       <c r="E182" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S182" s="6"/>
       <c r="T182" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="15.95">
+    <row r="183" spans="1:20" ht="15.6">
       <c r="A183" s="8" t="s">
         <v>409</v>
       </c>
@@ -5849,7 +5866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="15.95">
+    <row r="184" spans="1:20" ht="15.6" hidden="1">
       <c r="A184" s="8" t="s">
         <v>411</v>
       </c>
@@ -5860,14 +5877,14 @@
         <v>2019</v>
       </c>
       <c r="E184" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S184" s="6"/>
       <c r="T184" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="15.95">
+    <row r="185" spans="1:20" ht="15.6" hidden="1">
       <c r="A185" s="8" t="s">
         <v>413</v>
       </c>
@@ -5878,14 +5895,14 @@
         <v>2019</v>
       </c>
       <c r="E185" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S185" s="6"/>
       <c r="T185" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="15.95">
+    <row r="186" spans="1:20" ht="15.6" hidden="1">
       <c r="A186" s="8" t="s">
         <v>415</v>
       </c>
@@ -5896,14 +5913,14 @@
         <v>2019</v>
       </c>
       <c r="E186" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S186" s="6"/>
       <c r="T186" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="15.95">
+    <row r="187" spans="1:20" ht="15.6" hidden="1">
       <c r="A187" s="8" t="s">
         <v>417</v>
       </c>
@@ -5914,14 +5931,14 @@
         <v>2019</v>
       </c>
       <c r="E187" s="19" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="S187" s="6"/>
       <c r="T187" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="15.95">
+    <row r="188" spans="1:20" ht="15.6" hidden="1">
       <c r="A188" s="8" t="s">
         <v>419</v>
       </c>
@@ -5932,14 +5949,14 @@
         <v>2019</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="S188" s="6"/>
       <c r="T188" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="15.95">
+    <row r="189" spans="1:20" ht="15.6" hidden="1">
       <c r="A189" s="8" t="s">
         <v>421</v>
       </c>
@@ -5950,14 +5967,14 @@
         <v>2019</v>
       </c>
       <c r="E189" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S189" s="6"/>
       <c r="T189" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="15.95">
+    <row r="190" spans="1:20" ht="15.6" hidden="1">
       <c r="A190" s="8" t="s">
         <v>423</v>
       </c>
@@ -5968,14 +5985,14 @@
         <v>2019</v>
       </c>
       <c r="E190" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S190" s="6"/>
       <c r="T190" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="15.95">
+    <row r="191" spans="1:20" ht="15.6" hidden="1">
       <c r="A191" s="8" t="s">
         <v>425</v>
       </c>
@@ -5986,14 +6003,14 @@
         <v>2019</v>
       </c>
       <c r="E191" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S191" s="6"/>
       <c r="T191" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="15.95">
+    <row r="192" spans="1:20" ht="15.6" hidden="1">
       <c r="A192" s="8" t="s">
         <v>427</v>
       </c>
@@ -6004,14 +6021,14 @@
         <v>2019</v>
       </c>
       <c r="E192" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S192" s="6"/>
       <c r="T192" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="15.95">
+    <row r="193" spans="1:20" ht="15.6" hidden="1">
       <c r="A193" s="8" t="s">
         <v>429</v>
       </c>
@@ -6022,14 +6039,14 @@
         <v>2019</v>
       </c>
       <c r="E193" s="19" t="s">
-        <v>54</v>
+        <v>585</v>
       </c>
       <c r="S193" s="6"/>
       <c r="T193" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="15.95">
+    <row r="194" spans="1:20" ht="15.6">
       <c r="A194" s="8" t="s">
         <v>431</v>
       </c>
@@ -6047,7 +6064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="15.95">
+    <row r="195" spans="1:20" ht="15.6" hidden="1">
       <c r="A195" s="8" t="s">
         <v>433</v>
       </c>
@@ -6058,14 +6075,14 @@
         <v>2019</v>
       </c>
       <c r="E195" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="S195" s="6"/>
       <c r="T195" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="15.95">
+    <row r="196" spans="1:20" ht="15.6" hidden="1">
       <c r="A196" s="8" t="s">
         <v>435</v>
       </c>
@@ -6076,13 +6093,22 @@
         <v>2019</v>
       </c>
       <c r="E196" s="19" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="T196" s="15" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ196" xr:uid="{6CB58676-CBC5-481E-BC56-F9E5289B940B}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Countries with constitutional provisions on public participation"/>
+        <filter val="Countries with provisions in national administrative framework laws broadly providing for public participation"/>
+        <filter val="Countries with provisions in national environmental framework laws broadly guaranteeing public participation"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6096,21 +6122,21 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="89.140625" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="89.109375" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -13686,11 +13712,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14185,17 +14211,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6C7E77-FF0A-E84A-99FE-DC85AB833D10}">
   <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="103.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="103.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14257,7 +14283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.95">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="C8" t="s">
         <v>40</v>
       </c>
@@ -14271,7 +14297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.95">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="C9" s="9" t="s">
         <v>43</v>
       </c>
@@ -14299,7 +14325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.95">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="C11" s="9" t="s">
         <v>48</v>
       </c>
@@ -14313,7 +14339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.95">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="C12" s="9" t="s">
         <v>51</v>
       </c>
@@ -14327,7 +14353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.95">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="C13" s="9" t="s">
         <v>53</v>
       </c>
@@ -14341,7 +14367,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.95">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="C14" s="9" t="s">
         <v>56</v>
       </c>
@@ -14355,7 +14381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.95">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="C15" s="9" t="s">
         <v>59</v>
       </c>
@@ -14369,7 +14395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.95">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="C16" s="9" t="s">
         <v>61</v>
       </c>
@@ -14383,7 +14409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="15.95">
+    <row r="17" spans="3:6" ht="15.6">
       <c r="C17" s="9" t="s">
         <v>63</v>
       </c>
@@ -14397,7 +14423,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="15.75">
+    <row r="18" spans="3:6" ht="15.6">
       <c r="C18" s="9" t="s">
         <v>65</v>
       </c>
@@ -14411,7 +14437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="15.95">
+    <row r="19" spans="3:6" ht="15.6">
       <c r="C19" s="9" t="s">
         <v>68</v>
       </c>
@@ -14425,7 +14451,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="15.75">
+    <row r="20" spans="3:6" ht="15.6">
       <c r="C20" s="9" t="s">
         <v>70</v>
       </c>
@@ -14439,7 +14465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="15.75">
+    <row r="21" spans="3:6" ht="15.6">
       <c r="C21" s="9" t="s">
         <v>72</v>
       </c>
@@ -14453,7 +14479,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="15.95">
+    <row r="22" spans="3:6" ht="15.6">
       <c r="C22" s="9" t="s">
         <v>74</v>
       </c>
@@ -14467,7 +14493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="15.95">
+    <row r="23" spans="3:6" ht="15.6">
       <c r="C23" s="9" t="s">
         <v>76</v>
       </c>
@@ -14481,7 +14507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="15.75">
+    <row r="24" spans="3:6" ht="15.6">
       <c r="C24" s="9" t="s">
         <v>78</v>
       </c>
@@ -14495,7 +14521,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="15.95">
+    <row r="25" spans="3:6" ht="15.6">
       <c r="C25" s="9" t="s">
         <v>80</v>
       </c>
@@ -14509,7 +14535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="15.95">
+    <row r="26" spans="3:6" ht="15.6">
       <c r="C26" s="9" t="s">
         <v>82</v>
       </c>
@@ -14523,7 +14549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="15.95">
+    <row r="27" spans="3:6" ht="15.6">
       <c r="C27" s="9" t="s">
         <v>84</v>
       </c>
@@ -14537,7 +14563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="15.75">
+    <row r="28" spans="3:6" ht="15.6">
       <c r="C28" s="9" t="s">
         <v>86</v>
       </c>
@@ -14551,7 +14577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:6" ht="15.75">
+    <row r="29" spans="3:6" ht="15.6">
       <c r="C29" s="9" t="s">
         <v>88</v>
       </c>
@@ -14565,7 +14591,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="15.75">
+    <row r="30" spans="3:6" ht="15.6">
       <c r="C30" s="9" t="s">
         <v>90</v>
       </c>
@@ -14579,7 +14605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="15.75">
+    <row r="31" spans="3:6" ht="15.6">
       <c r="C31" s="9" t="s">
         <v>92</v>
       </c>
@@ -14593,7 +14619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="15.95">
+    <row r="32" spans="3:6" ht="15.6">
       <c r="C32" s="9" t="s">
         <v>94</v>
       </c>
@@ -14607,7 +14633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15.95">
+    <row r="33" spans="3:6" ht="15.6">
       <c r="C33" s="9" t="s">
         <v>96</v>
       </c>
@@ -14621,7 +14647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="15.95">
+    <row r="34" spans="3:6" ht="15.6">
       <c r="C34" s="9" t="s">
         <v>98</v>
       </c>
@@ -14635,7 +14661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="15.95">
+    <row r="35" spans="3:6" ht="15.6">
       <c r="C35" s="9" t="s">
         <v>100</v>
       </c>
@@ -14649,7 +14675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15.95">
+    <row r="36" spans="3:6" ht="15.6">
       <c r="C36" s="9" t="s">
         <v>102</v>
       </c>
@@ -14663,7 +14689,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15.75">
+    <row r="37" spans="3:6" ht="15.6">
       <c r="C37" s="9" t="s">
         <v>104</v>
       </c>
@@ -14677,7 +14703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15.95">
+    <row r="38" spans="3:6" ht="15.6">
       <c r="C38" s="9" t="s">
         <v>106</v>
       </c>
@@ -14691,7 +14717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15.95">
+    <row r="39" spans="3:6" ht="15.6">
       <c r="C39" s="9" t="s">
         <v>108</v>
       </c>
@@ -14705,7 +14731,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="15.75">
+    <row r="40" spans="3:6" ht="15.6">
       <c r="C40" s="9" t="s">
         <v>110</v>
       </c>
@@ -14719,7 +14745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="15.95">
+    <row r="41" spans="3:6" ht="15.6">
       <c r="C41" s="9" t="s">
         <v>112</v>
       </c>
@@ -14733,7 +14759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="15.95">
+    <row r="42" spans="3:6" ht="15.6">
       <c r="C42" s="9" t="s">
         <v>114</v>
       </c>
@@ -14747,7 +14773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="15.95">
+    <row r="43" spans="3:6" ht="15.6">
       <c r="C43" s="9" t="s">
         <v>116</v>
       </c>
@@ -14761,7 +14787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="15.75">
+    <row r="44" spans="3:6" ht="15.6">
       <c r="C44" s="9" t="s">
         <v>118</v>
       </c>
@@ -14775,7 +14801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="15.95">
+    <row r="45" spans="3:6" ht="15.6">
       <c r="C45" s="9" t="s">
         <v>120</v>
       </c>
@@ -14789,7 +14815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="15.95">
+    <row r="46" spans="3:6" ht="15.6">
       <c r="C46" s="9" t="s">
         <v>122</v>
       </c>
@@ -14803,7 +14829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="15.95">
+    <row r="47" spans="3:6" ht="15.6">
       <c r="C47" s="9" t="s">
         <v>124</v>
       </c>
@@ -14817,7 +14843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="15.75">
+    <row r="48" spans="3:6" ht="15.6">
       <c r="C48" s="9" t="s">
         <v>126</v>
       </c>
@@ -14831,7 +14857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="15.95">
+    <row r="49" spans="3:6" ht="15.6">
       <c r="C49" s="9" t="s">
         <v>128</v>
       </c>
@@ -14845,7 +14871,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="15.95">
+    <row r="50" spans="3:6" ht="15.6">
       <c r="C50" s="9" t="s">
         <v>130</v>
       </c>
@@ -14859,7 +14885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="15.95">
+    <row r="51" spans="3:6" ht="15.6">
       <c r="C51" s="9" t="s">
         <v>132</v>
       </c>
@@ -14873,7 +14899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="15.95">
+    <row r="52" spans="3:6" ht="15.6">
       <c r="C52" s="9" t="s">
         <v>134</v>
       </c>
@@ -14887,7 +14913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="15.75">
+    <row r="53" spans="3:6" ht="15.6">
       <c r="C53" s="9" t="s">
         <v>136</v>
       </c>
@@ -14901,7 +14927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="15.75">
+    <row r="54" spans="3:6" ht="15.6">
       <c r="C54" s="9" t="s">
         <v>138</v>
       </c>
@@ -14915,7 +14941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="15.75">
+    <row r="55" spans="3:6" ht="15.6">
       <c r="C55" s="9" t="s">
         <v>140</v>
       </c>
@@ -14929,7 +14955,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="15.95">
+    <row r="56" spans="3:6" ht="15.6">
       <c r="C56" s="9" t="s">
         <v>142</v>
       </c>
@@ -14943,7 +14969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="15.95">
+    <row r="57" spans="3:6" ht="15.6">
       <c r="C57" s="9" t="s">
         <v>144</v>
       </c>
@@ -14957,7 +14983,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="15.95">
+    <row r="58" spans="3:6" ht="15.6">
       <c r="C58" s="9" t="s">
         <v>146</v>
       </c>
@@ -14971,7 +14997,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="15.95">
+    <row r="59" spans="3:6" ht="15.6">
       <c r="C59" s="9" t="s">
         <v>148</v>
       </c>
@@ -14985,7 +15011,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="15.95">
+    <row r="60" spans="3:6" ht="15.6">
       <c r="C60" s="9" t="s">
         <v>150</v>
       </c>
@@ -14999,7 +15025,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="15.95">
+    <row r="61" spans="3:6" ht="15.6">
       <c r="C61" s="9" t="s">
         <v>152</v>
       </c>
@@ -15013,7 +15039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="15.95">
+    <row r="62" spans="3:6" ht="15.6">
       <c r="C62" s="9" t="s">
         <v>154</v>
       </c>
@@ -15027,7 +15053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="15.95">
+    <row r="63" spans="3:6" ht="15.6">
       <c r="C63" s="9" t="s">
         <v>156</v>
       </c>
@@ -15041,7 +15067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="15.95">
+    <row r="64" spans="3:6" ht="15.6">
       <c r="C64" s="9" t="s">
         <v>158</v>
       </c>
@@ -15055,7 +15081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="15.95">
+    <row r="65" spans="3:6" ht="15.6">
       <c r="C65" s="9" t="s">
         <v>160</v>
       </c>
@@ -15069,7 +15095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="3:6" ht="15.95">
+    <row r="66" spans="3:6" ht="15.6">
       <c r="C66" s="9" t="s">
         <v>162</v>
       </c>
@@ -15083,7 +15109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="3:6" ht="15.95">
+    <row r="67" spans="3:6" ht="15.6">
       <c r="C67" s="9" t="s">
         <v>164</v>
       </c>
@@ -15097,7 +15123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="3:6" ht="15.95">
+    <row r="68" spans="3:6" ht="15.6">
       <c r="C68" s="9" t="s">
         <v>166</v>
       </c>
@@ -15111,7 +15137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="15.75">
+    <row r="69" spans="3:6" ht="15.6">
       <c r="C69" s="9" t="s">
         <v>168</v>
       </c>
@@ -15125,7 +15151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="3:6" ht="15.75">
+    <row r="70" spans="3:6" ht="15.6">
       <c r="C70" s="9" t="s">
         <v>170</v>
       </c>
@@ -15139,7 +15165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="3:6" ht="15.95">
+    <row r="71" spans="3:6" ht="15.6">
       <c r="C71" s="9" t="s">
         <v>172</v>
       </c>
@@ -15153,7 +15179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="3:6" ht="15.95">
+    <row r="72" spans="3:6" ht="15.6">
       <c r="C72" s="9" t="s">
         <v>174</v>
       </c>
@@ -15167,7 +15193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="15.95">
+    <row r="73" spans="3:6" ht="15.6">
       <c r="C73" s="9" t="s">
         <v>176</v>
       </c>
@@ -15181,7 +15207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="15.75">
+    <row r="74" spans="3:6" ht="15.6">
       <c r="C74" s="9" t="s">
         <v>178</v>
       </c>
@@ -15195,7 +15221,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="3:6" ht="15.95">
+    <row r="75" spans="3:6" ht="15.6">
       <c r="C75" s="9" t="s">
         <v>180</v>
       </c>
@@ -15209,7 +15235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="3:6" ht="15.75">
+    <row r="76" spans="3:6" ht="15.6">
       <c r="C76" s="9" t="s">
         <v>182</v>
       </c>
@@ -15223,7 +15249,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="15.95">
+    <row r="77" spans="3:6" ht="15.6">
       <c r="C77" s="9" t="s">
         <v>184</v>
       </c>
@@ -15237,7 +15263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="3:6" ht="15.95">
+    <row r="78" spans="3:6" ht="15.6">
       <c r="C78" s="9" t="s">
         <v>186</v>
       </c>
@@ -15251,7 +15277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="15.95">
+    <row r="79" spans="3:6" ht="15.6">
       <c r="C79" s="9" t="s">
         <v>188</v>
       </c>
@@ -15265,7 +15291,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="15.95">
+    <row r="80" spans="3:6" ht="15.6">
       <c r="C80" s="9" t="s">
         <v>190</v>
       </c>
@@ -15279,7 +15305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="15.95">
+    <row r="81" spans="3:6" ht="15.6">
       <c r="C81" s="9" t="s">
         <v>192</v>
       </c>
@@ -15293,7 +15319,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="15.75">
+    <row r="82" spans="3:6" ht="15.6">
       <c r="C82" s="9" t="s">
         <v>194</v>
       </c>
@@ -15307,7 +15333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="15.75">
+    <row r="83" spans="3:6" ht="15.6">
       <c r="C83" s="9" t="s">
         <v>196</v>
       </c>
@@ -15321,7 +15347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="3:6" ht="15.95">
+    <row r="84" spans="3:6" ht="15.6">
       <c r="C84" s="9" t="s">
         <v>198</v>
       </c>
@@ -15335,7 +15361,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="3:6" ht="15.95">
+    <row r="85" spans="3:6" ht="15.6">
       <c r="C85" s="9" t="s">
         <v>201</v>
       </c>
@@ -15349,7 +15375,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="3:6" ht="15.95">
+    <row r="86" spans="3:6" ht="15.6">
       <c r="C86" s="9" t="s">
         <v>203</v>
       </c>
@@ -15363,7 +15389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="3:6" ht="15.75">
+    <row r="87" spans="3:6" ht="15.6">
       <c r="C87" s="9" t="s">
         <v>205</v>
       </c>
@@ -15377,7 +15403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="3:6" ht="15.75">
+    <row r="88" spans="3:6" ht="15.6">
       <c r="C88" s="9" t="s">
         <v>207</v>
       </c>
@@ -15391,7 +15417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="15.95">
+    <row r="89" spans="3:6" ht="15.6">
       <c r="C89" s="9" t="s">
         <v>209</v>
       </c>
@@ -15405,7 +15431,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="15.75">
+    <row r="90" spans="3:6" ht="15.6">
       <c r="C90" s="9" t="s">
         <v>211</v>
       </c>
@@ -15419,7 +15445,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="3:6" ht="15.75">
+    <row r="91" spans="3:6" ht="15.6">
       <c r="C91" s="9" t="s">
         <v>213</v>
       </c>
@@ -15433,7 +15459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="3:6" ht="15.95">
+    <row r="92" spans="3:6" ht="15.6">
       <c r="C92" s="9" t="s">
         <v>215</v>
       </c>
@@ -15447,7 +15473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="3:6" ht="15.95">
+    <row r="93" spans="3:6" ht="15.6">
       <c r="C93" s="9" t="s">
         <v>217</v>
       </c>
@@ -15461,7 +15487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="15.75">
+    <row r="94" spans="3:6" ht="15.6">
       <c r="C94" s="9" t="s">
         <v>219</v>
       </c>
@@ -15475,7 +15501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="15.75">
+    <row r="95" spans="3:6" ht="15.6">
       <c r="C95" s="9" t="s">
         <v>221</v>
       </c>
@@ -15489,7 +15515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="3:6" ht="15.95">
+    <row r="96" spans="3:6" ht="15.6">
       <c r="C96" s="9" t="s">
         <v>223</v>
       </c>
@@ -15503,7 +15529,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="3:6" ht="15.95">
+    <row r="97" spans="3:6" ht="15.6">
       <c r="C97" s="9" t="s">
         <v>225</v>
       </c>
@@ -15517,7 +15543,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="15.75">
+    <row r="98" spans="3:6" ht="15.6">
       <c r="C98" s="9" t="s">
         <v>227</v>
       </c>
@@ -15531,7 +15557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="15.95">
+    <row r="99" spans="3:6" ht="15.6">
       <c r="C99" s="9" t="s">
         <v>229</v>
       </c>
@@ -15545,7 +15571,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="15.75">
+    <row r="100" spans="3:6" ht="15.6">
       <c r="C100" s="9" t="s">
         <v>231</v>
       </c>
@@ -15559,7 +15585,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="101" spans="3:6" ht="15.75">
+    <row r="101" spans="3:6" ht="15.6">
       <c r="C101" s="9" t="s">
         <v>234</v>
       </c>
@@ -15573,7 +15599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="3:6" ht="15.95">
+    <row r="102" spans="3:6" ht="15.6">
       <c r="C102" s="9" t="s">
         <v>236</v>
       </c>
@@ -15587,7 +15613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="15.75">
+    <row r="103" spans="3:6" ht="15.6">
       <c r="C103" s="9" t="s">
         <v>238</v>
       </c>
@@ -15601,7 +15627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="15.95">
+    <row r="104" spans="3:6" ht="15.6">
       <c r="C104" s="9" t="s">
         <v>240</v>
       </c>
@@ -15615,7 +15641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="3:6" ht="15.95">
+    <row r="105" spans="3:6" ht="15.6">
       <c r="C105" s="9" t="s">
         <v>242</v>
       </c>
@@ -15629,7 +15655,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="3:6" ht="15.75">
+    <row r="106" spans="3:6" ht="15.6">
       <c r="C106" s="9" t="s">
         <v>244</v>
       </c>
@@ -15643,7 +15669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="3:6" ht="15.95">
+    <row r="107" spans="3:6" ht="15.6">
       <c r="C107" s="9" t="s">
         <v>246</v>
       </c>
@@ -15657,7 +15683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="15.75">
+    <row r="108" spans="3:6" ht="15.6">
       <c r="C108" s="9" t="s">
         <v>248</v>
       </c>
@@ -15671,7 +15697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="15.95">
+    <row r="109" spans="3:6" ht="15.6">
       <c r="C109" s="9" t="s">
         <v>250</v>
       </c>
@@ -15685,7 +15711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="15.75">
+    <row r="110" spans="3:6" ht="15.6">
       <c r="C110" s="9" t="s">
         <v>252</v>
       </c>
@@ -15699,7 +15725,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="3:6" ht="15.75">
+    <row r="111" spans="3:6" ht="15.6">
       <c r="C111" s="9" t="s">
         <v>255</v>
       </c>
@@ -15713,7 +15739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="3:6" ht="15.75">
+    <row r="112" spans="3:6" ht="15.6">
       <c r="C112" s="9" t="s">
         <v>257</v>
       </c>
@@ -15727,7 +15753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="15.75">
+    <row r="113" spans="3:6" ht="15.6">
       <c r="C113" s="9" t="s">
         <v>259</v>
       </c>
@@ -15741,7 +15767,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="114" spans="3:6" ht="15.95">
+    <row r="114" spans="3:6" ht="15.6">
       <c r="C114" s="9" t="s">
         <v>261</v>
       </c>
@@ -15755,7 +15781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="3:6" ht="15.75">
+    <row r="115" spans="3:6" ht="15.6">
       <c r="C115" s="9" t="s">
         <v>263</v>
       </c>
@@ -15769,7 +15795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="3:6" ht="15.75">
+    <row r="116" spans="3:6" ht="15.6">
       <c r="C116" s="9" t="s">
         <v>265</v>
       </c>
@@ -15783,7 +15809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="3:6" ht="15.95">
+    <row r="117" spans="3:6" ht="15.6">
       <c r="C117" s="9" t="s">
         <v>267</v>
       </c>
@@ -15797,7 +15823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="15.75">
+    <row r="118" spans="3:6" ht="15.6">
       <c r="C118" s="9" t="s">
         <v>269</v>
       </c>
@@ -15811,7 +15837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="15.75">
+    <row r="119" spans="3:6" ht="15.6">
       <c r="C119" s="9" t="s">
         <v>271</v>
       </c>
@@ -15825,7 +15851,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="15.75">
+    <row r="120" spans="3:6" ht="15.6">
       <c r="C120" s="9" t="s">
         <v>273</v>
       </c>
@@ -15839,7 +15865,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="121" spans="3:6" ht="15.75">
+    <row r="121" spans="3:6" ht="15.6">
       <c r="C121" s="9" t="s">
         <v>275</v>
       </c>
@@ -15853,7 +15879,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="3:6" ht="15.95">
+    <row r="122" spans="3:6" ht="15.6">
       <c r="C122" s="9" t="s">
         <v>277</v>
       </c>
@@ -15867,7 +15893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="15.95">
+    <row r="123" spans="3:6" ht="15.6">
       <c r="C123" s="9" t="s">
         <v>279</v>
       </c>
@@ -15881,7 +15907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="15.95">
+    <row r="124" spans="3:6" ht="15.6">
       <c r="C124" s="9" t="s">
         <v>281</v>
       </c>
@@ -15895,7 +15921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="15.75">
+    <row r="125" spans="3:6" ht="15.6">
       <c r="C125" s="9" t="s">
         <v>283</v>
       </c>
@@ -15909,7 +15935,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="126" spans="3:6" ht="15.75">
+    <row r="126" spans="3:6" ht="15.6">
       <c r="C126" s="9" t="s">
         <v>285</v>
       </c>
@@ -15923,7 +15949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="3:6" ht="15.95">
+    <row r="127" spans="3:6" ht="15.6">
       <c r="C127" s="9" t="s">
         <v>287</v>
       </c>
@@ -15937,7 +15963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="3:6" ht="15.75">
+    <row r="128" spans="3:6" ht="15.6">
       <c r="C128" s="9" t="s">
         <v>289</v>
       </c>
@@ -15951,7 +15977,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="3:6" ht="15.95">
+    <row r="129" spans="3:6" ht="15.6">
       <c r="C129" s="9" t="s">
         <v>291</v>
       </c>
@@ -15965,7 +15991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="3:6" ht="15.75">
+    <row r="130" spans="3:6" ht="15.6">
       <c r="C130" s="9" t="s">
         <v>293</v>
       </c>
@@ -15979,7 +16005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="3:6" ht="15.95">
+    <row r="131" spans="3:6" ht="15.6">
       <c r="C131" s="9" t="s">
         <v>295</v>
       </c>
@@ -15993,7 +16019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="3:6" ht="15.95">
+    <row r="132" spans="3:6" ht="15.6">
       <c r="C132" s="9" t="s">
         <v>297</v>
       </c>
@@ -16007,7 +16033,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="3:6" ht="15.95">
+    <row r="133" spans="3:6" ht="15.6">
       <c r="C133" s="9" t="s">
         <v>299</v>
       </c>
@@ -16021,7 +16047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="3:6" ht="15.95">
+    <row r="134" spans="3:6" ht="15.6">
       <c r="C134" s="9" t="s">
         <v>301</v>
       </c>
@@ -16035,7 +16061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="3:6" ht="15.75">
+    <row r="135" spans="3:6" ht="15.6">
       <c r="C135" s="9" t="s">
         <v>303</v>
       </c>
@@ -16049,7 +16075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="3:6" ht="15.95">
+    <row r="136" spans="3:6" ht="15.6">
       <c r="C136" s="9" t="s">
         <v>305</v>
       </c>
@@ -16063,7 +16089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="3:6" ht="15.75">
+    <row r="137" spans="3:6" ht="15.6">
       <c r="C137" s="9" t="s">
         <v>307</v>
       </c>
@@ -16077,7 +16103,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="3:6" ht="15.95">
+    <row r="138" spans="3:6" ht="15.6">
       <c r="C138" s="9" t="s">
         <v>309</v>
       </c>
@@ -16091,7 +16117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="3:6" ht="15.75">
+    <row r="139" spans="3:6" ht="15.6">
       <c r="C139" s="9" t="s">
         <v>311</v>
       </c>
@@ -16105,7 +16131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="3:6" ht="15.95">
+    <row r="140" spans="3:6" ht="15.6">
       <c r="C140" s="9" t="s">
         <v>313</v>
       </c>
@@ -16119,7 +16145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="3:6" ht="15.75">
+    <row r="141" spans="3:6" ht="15.6">
       <c r="C141" s="9" t="s">
         <v>315</v>
       </c>
@@ -16133,7 +16159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="3:6" ht="15.75">
+    <row r="142" spans="3:6" ht="15.6">
       <c r="C142" s="9" t="s">
         <v>317</v>
       </c>
@@ -16147,7 +16173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="3:6" ht="15.75">
+    <row r="143" spans="3:6" ht="15.6">
       <c r="C143" s="9" t="s">
         <v>319</v>
       </c>
@@ -16161,7 +16187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="3:6" ht="15.95">
+    <row r="144" spans="3:6" ht="15.6">
       <c r="C144" s="9" t="s">
         <v>321</v>
       </c>
@@ -16175,7 +16201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="3:6" ht="15.75">
+    <row r="145" spans="3:6" ht="15.6">
       <c r="C145" s="9" t="s">
         <v>323</v>
       </c>
@@ -16189,7 +16215,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="3:6" ht="15.75">
+    <row r="146" spans="3:6" ht="15.6">
       <c r="C146" s="9" t="s">
         <v>325</v>
       </c>
@@ -16203,7 +16229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="3:6" ht="15.75">
+    <row r="147" spans="3:6" ht="15.6">
       <c r="C147" s="9" t="s">
         <v>327</v>
       </c>
@@ -16217,7 +16243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="3:6" ht="15.95">
+    <row r="148" spans="3:6" ht="15.6">
       <c r="C148" s="9" t="s">
         <v>329</v>
       </c>
@@ -16231,7 +16257,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="3:6" ht="15.95">
+    <row r="149" spans="3:6" ht="15.6">
       <c r="C149" s="9" t="s">
         <v>331</v>
       </c>
@@ -16245,7 +16271,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="3:6" ht="15.75">
+    <row r="150" spans="3:6" ht="15.6">
       <c r="C150" s="9" t="s">
         <v>333</v>
       </c>
@@ -16259,7 +16285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="3:6" ht="15.95">
+    <row r="151" spans="3:6" ht="15.6">
       <c r="C151" s="9" t="s">
         <v>335</v>
       </c>
@@ -16273,7 +16299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="3:6" ht="15.95">
+    <row r="152" spans="3:6" ht="15.6">
       <c r="C152" s="9" t="s">
         <v>337</v>
       </c>
@@ -16287,7 +16313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="3:6" ht="15.75">
+    <row r="153" spans="3:6" ht="15.6">
       <c r="C153" s="9" t="s">
         <v>339</v>
       </c>
@@ -16301,7 +16327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="3:6" ht="15.95">
+    <row r="154" spans="3:6" ht="15.6">
       <c r="C154" s="9" t="s">
         <v>341</v>
       </c>
@@ -16315,7 +16341,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="3:6" ht="15.75">
+    <row r="155" spans="3:6" ht="15.6">
       <c r="C155" s="9" t="s">
         <v>343</v>
       </c>
@@ -16329,7 +16355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="3:6" ht="15.75">
+    <row r="156" spans="3:6" ht="15.6">
       <c r="C156" s="9" t="s">
         <v>345</v>
       </c>
@@ -16343,7 +16369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="3:6" ht="15.95">
+    <row r="157" spans="3:6" ht="15.6">
       <c r="C157" s="9" t="s">
         <v>347</v>
       </c>
@@ -16357,7 +16383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="3:6" ht="15.95">
+    <row r="158" spans="3:6" ht="15.6">
       <c r="C158" s="9" t="s">
         <v>349</v>
       </c>
@@ -16371,7 +16397,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="3:6" ht="15.95">
+    <row r="159" spans="3:6" ht="15.6">
       <c r="C159" s="9" t="s">
         <v>351</v>
       </c>
@@ -16385,7 +16411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="3:6" ht="15.75">
+    <row r="160" spans="3:6" ht="15.6">
       <c r="C160" s="9" t="s">
         <v>353</v>
       </c>
@@ -16399,7 +16425,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="161" spans="2:6" ht="15.75">
+    <row r="161" spans="2:6" ht="15.6">
       <c r="C161" s="9" t="s">
         <v>356</v>
       </c>
@@ -16413,7 +16439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="15.75">
+    <row r="162" spans="2:6" ht="15.6">
       <c r="C162" s="9" t="s">
         <v>358</v>
       </c>
@@ -16427,7 +16453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="15.95">
+    <row r="163" spans="2:6" ht="15.6">
       <c r="C163" s="9" t="s">
         <v>360</v>
       </c>
@@ -16441,7 +16467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="15.75">
+    <row r="164" spans="2:6" ht="15.6">
       <c r="C164" s="9" t="s">
         <v>362</v>
       </c>
@@ -16455,7 +16481,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="15.75">
+    <row r="165" spans="2:6" ht="15.6">
       <c r="C165" s="9" t="s">
         <v>364</v>
       </c>
@@ -16469,7 +16495,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="15.75">
+    <row r="166" spans="2:6" ht="15.6">
       <c r="C166" s="9" t="s">
         <v>366</v>
       </c>
@@ -16483,7 +16509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="15.95">
+    <row r="167" spans="2:6" ht="15.6">
       <c r="C167" s="9" t="s">
         <v>368</v>
       </c>
@@ -16497,7 +16523,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="2:6" ht="15.95">
+    <row r="168" spans="2:6" ht="15.6">
       <c r="C168" s="9" t="s">
         <v>370</v>
       </c>
@@ -16511,7 +16537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="2:6" ht="15.75">
+    <row r="169" spans="2:6" ht="15.6">
       <c r="B169" s="11"/>
       <c r="C169" s="9" t="s">
         <v>372</v>
@@ -16526,7 +16552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="15.95">
+    <row r="170" spans="2:6" ht="15.6">
       <c r="C170" s="9" t="s">
         <v>374</v>
       </c>
@@ -16540,7 +16566,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="15.75">
+    <row r="171" spans="2:6" ht="15.6">
       <c r="C171" s="9" t="s">
         <v>376</v>
       </c>
@@ -16554,7 +16580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="172" spans="2:6" ht="15.95">
+    <row r="172" spans="2:6" ht="15.6">
       <c r="C172" s="9" t="s">
         <v>378</v>
       </c>
@@ -16568,7 +16594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="15.95">
+    <row r="173" spans="2:6" ht="15.6">
       <c r="C173" s="9" t="s">
         <v>380</v>
       </c>
@@ -16582,7 +16608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="15.95">
+    <row r="174" spans="2:6" ht="15.6">
       <c r="C174" s="9" t="s">
         <v>382</v>
       </c>
@@ -16596,7 +16622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="15.75">
+    <row r="175" spans="2:6" ht="15.6">
       <c r="C175" s="9" t="s">
         <v>384</v>
       </c>
@@ -16610,7 +16636,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="15.75">
+    <row r="176" spans="2:6" ht="15.6">
       <c r="C176" s="9" t="s">
         <v>386</v>
       </c>
@@ -16624,7 +16650,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="15.95">
+    <row r="177" spans="2:6" ht="15.6">
       <c r="C177" s="9" t="s">
         <v>388</v>
       </c>
@@ -16638,7 +16664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="2:6" ht="15.95">
+    <row r="178" spans="2:6" ht="15.6">
       <c r="C178" s="9" t="s">
         <v>390</v>
       </c>
@@ -16652,7 +16678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="2:6" ht="15.95">
+    <row r="179" spans="2:6" ht="15.6">
       <c r="C179" s="9" t="s">
         <v>392</v>
       </c>
@@ -16666,7 +16692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="15.75">
+    <row r="180" spans="2:6" ht="15.6">
       <c r="C180" s="9" t="s">
         <v>394</v>
       </c>
@@ -16680,7 +16706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="15.95">
+    <row r="181" spans="2:6" ht="15.6">
       <c r="C181" s="9" t="s">
         <v>396</v>
       </c>
@@ -16694,7 +16720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="15.75">
+    <row r="182" spans="2:6" ht="15.6">
       <c r="C182" s="9" t="s">
         <v>398</v>
       </c>
@@ -16708,7 +16734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="15.95">
+    <row r="183" spans="2:6" ht="15.6">
       <c r="C183" s="9" t="s">
         <v>400</v>
       </c>
@@ -16722,7 +16748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="2:6" ht="15.75">
+    <row r="184" spans="2:6" ht="15.6">
       <c r="C184" s="9" t="s">
         <v>402</v>
       </c>
@@ -16736,7 +16762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="15.75">
+    <row r="185" spans="2:6" ht="15.6">
       <c r="C185" s="9" t="s">
         <v>404</v>
       </c>
@@ -16750,7 +16776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="15.95">
+    <row r="186" spans="2:6" ht="15.6">
       <c r="C186" s="9" t="s">
         <v>406</v>
       </c>
@@ -16779,7 +16805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="15.75">
+    <row r="188" spans="2:6" ht="15.6">
       <c r="C188" s="9" t="s">
         <v>410</v>
       </c>
@@ -16793,7 +16819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="2:6" ht="15.95">
+    <row r="189" spans="2:6" ht="15.6">
       <c r="C189" s="9" t="s">
         <v>412</v>
       </c>
@@ -16807,7 +16833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="190" spans="2:6" ht="15.95">
+    <row r="190" spans="2:6" ht="15.6">
       <c r="C190" s="9" t="s">
         <v>414</v>
       </c>
@@ -16821,7 +16847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="15.75">
+    <row r="191" spans="2:6" ht="15.6">
       <c r="C191" s="9" t="s">
         <v>416</v>
       </c>
@@ -16835,7 +16861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="15.75">
+    <row r="192" spans="2:6" ht="15.6">
       <c r="C192" s="9" t="s">
         <v>418</v>
       </c>
@@ -16849,7 +16875,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="193" spans="3:6" ht="15.75">
+    <row r="193" spans="3:6" ht="15.6">
       <c r="C193" s="9" t="s">
         <v>420</v>
       </c>
@@ -16863,7 +16889,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="194" spans="3:6" ht="15.95">
+    <row r="194" spans="3:6" ht="15.6">
       <c r="C194" s="9" t="s">
         <v>422</v>
       </c>
@@ -16877,7 +16903,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="3:6" ht="15.95">
+    <row r="195" spans="3:6" ht="15.6">
       <c r="C195" s="9" t="s">
         <v>424</v>
       </c>
@@ -16891,7 +16917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="3:6" ht="15.95">
+    <row r="196" spans="3:6" ht="15.6">
       <c r="C196" s="9" t="s">
         <v>426</v>
       </c>
@@ -16905,7 +16931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" spans="3:6" ht="15.75">
+    <row r="197" spans="3:6" ht="15.6">
       <c r="C197" s="9" t="s">
         <v>428</v>
       </c>
@@ -16919,7 +16945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="3:6" ht="15.75">
+    <row r="198" spans="3:6" ht="15.6">
       <c r="C198" s="9" t="s">
         <v>430</v>
       </c>
@@ -16933,7 +16959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="199" spans="3:6" ht="15.95">
+    <row r="199" spans="3:6" ht="15.6">
       <c r="C199" s="9" t="s">
         <v>432</v>
       </c>
@@ -16947,7 +16973,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="200" spans="3:6" ht="15.95">
+    <row r="200" spans="3:6" ht="15.6">
       <c r="C200" s="9" t="s">
         <v>434</v>
       </c>
@@ -16961,7 +16987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="201" spans="3:6" ht="15.95">
+    <row r="201" spans="3:6" ht="15.6">
       <c r="C201" s="9" t="s">
         <v>436</v>
       </c>
@@ -17011,21 +17037,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6C00DC80E9FED4596C9F6D7CDDD6042" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eeea28be7a11a4fc7601b4d531de3e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="801409e539578746097a67e8a71a3340" ns2:_="">
     <xsd:import namespace="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
@@ -17197,14 +17208,59 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6962EFDB-3713-4253-9AC6-1F6EE91D9C4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6322EC08-7F15-4758-B157-ECD15CFD93D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D4A413-FCE6-452E-998A-26A273C51DAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="48b2e3f7-b09f-47ae-8574-fd5d5ffa6be8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>